--- a/Mifos Automation Excels/Client/3011-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-FLAT-Regular-CASH-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3011-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-FLAT-Regular-CASH-Makerepayment1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
   <si>
     <t>#</t>
   </si>
@@ -168,20 +168,23 @@
     <t>repaymenttransactiondate</t>
   </si>
   <si>
-    <t>$ 800.98</t>
-  </si>
-  <si>
-    <t>$ 186.74</t>
-  </si>
-  <si>
     <t>$ 987.72</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>$ 885.8</t>
+  </si>
+  <si>
+    <t>$ 101.92</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +205,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -281,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -320,10 +331,19 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,7 +667,7 @@
       <c r="A2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="18">
         <v>42036</v>
       </c>
     </row>
@@ -661,13 +681,13 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
@@ -700,25 +720,25 @@
         <v>10000</v>
       </c>
       <c r="B2" s="7">
-        <v>0</v>
+        <v>885.8</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7">
         <v>0</v>
       </c>
-      <c r="E2" s="9">
-        <v>10000</v>
-      </c>
-      <c r="F2" s="10">
-        <v>1581.47</v>
+      <c r="E2" s="10">
+        <v>9114.2000000000007</v>
+      </c>
+      <c r="F2" s="7">
+        <v>803.82</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>685.07</v>
+        <v>656.87</v>
       </c>
       <c r="B3" s="7">
-        <v>0</v>
+        <v>101.92</v>
       </c>
       <c r="C3" s="7">
         <v>0</v>
@@ -727,10 +747,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="7">
-        <v>685.07</v>
+        <v>554.95000000000005</v>
       </c>
       <c r="F3" s="7">
-        <v>193.97</v>
+        <v>83.9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -747,7 +767,6 @@
         <v>0</v>
       </c>
       <c r="E4" s="7">
-        <f>A4-B4</f>
         <v>0</v>
       </c>
       <c r="F4" s="7">
@@ -756,10 +775,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B5" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -782,10 +801,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="H20" sqref="H20:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,7 +819,7 @@
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
@@ -883,6 +902,7 @@
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
       <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -900,10 +920,10 @@
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="7">
-        <v>785.8</v>
+        <v>885.8</v>
       </c>
       <c r="G3" s="10">
-        <v>9214.2000000000007</v>
+        <v>9114.2000000000007</v>
       </c>
       <c r="H3" s="7">
         <v>101.92</v>
@@ -912,18 +932,21 @@
         <v>0</v>
       </c>
       <c r="J3" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K3" s="7">
-        <v>987.74</v>
-      </c>
-      <c r="L3" s="18">
-        <v>987.74</v>
+        <v>987.72</v>
+      </c>
+      <c r="L3" s="7">
+        <v>987.72</v>
       </c>
       <c r="M3" s="7">
         <v>0</v>
       </c>
       <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="O3" s="7">
         <v>0</v>
       </c>
       <c r="P3" s="7">
@@ -943,13 +966,13 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7">
-        <v>802.9</v>
+        <v>803.82</v>
       </c>
       <c r="G4" s="10">
-        <v>8411.2999999999993</v>
+        <v>8310.3799999999992</v>
       </c>
       <c r="H4" s="7">
-        <v>84.82</v>
+        <v>83.9</v>
       </c>
       <c r="I4" s="7">
         <v>0</v>
@@ -958,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="7">
-        <v>887.74</v>
+        <v>887.72</v>
       </c>
       <c r="L4" s="7">
         <v>0</v>
@@ -969,8 +992,11 @@
       <c r="N4" s="7">
         <v>0</v>
       </c>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
       <c r="P4" s="7">
-        <v>888.57</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -986,13 +1012,13 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7">
-        <v>793.81</v>
+        <v>794.83</v>
       </c>
       <c r="G5" s="10">
-        <v>7617.49</v>
+        <v>7515.55</v>
       </c>
       <c r="H5" s="7">
-        <v>93.91</v>
+        <v>92.89</v>
       </c>
       <c r="I5" s="7">
         <v>0</v>
@@ -1001,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="7">
-        <v>887.74</v>
+        <v>887.72</v>
       </c>
       <c r="L5" s="7">
         <v>0</v>
@@ -1012,8 +1038,11 @@
       <c r="N5" s="7">
         <v>0</v>
       </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
       <c r="P5" s="7">
-        <v>888.66</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1029,13 +1058,13 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7">
-        <v>812.59</v>
+        <v>813.59</v>
       </c>
       <c r="G6" s="10">
-        <v>6804.9</v>
+        <v>6701.96</v>
       </c>
       <c r="H6" s="7">
-        <v>75.13</v>
+        <v>74.13</v>
       </c>
       <c r="I6" s="7">
         <v>0</v>
@@ -1044,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="7">
-        <v>887.74</v>
+        <v>887.72</v>
       </c>
       <c r="L6" s="7">
         <v>0</v>
@@ -1055,8 +1084,11 @@
       <c r="N6" s="7">
         <v>0</v>
       </c>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
       <c r="P6" s="7">
-        <v>888.47</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1072,13 +1104,13 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7">
-        <v>818.37</v>
+        <v>819.42</v>
       </c>
       <c r="G7" s="10">
-        <v>5986.53</v>
+        <v>5882.54</v>
       </c>
       <c r="H7" s="7">
-        <v>69.349999999999994</v>
+        <v>68.3</v>
       </c>
       <c r="I7" s="7">
         <v>0</v>
@@ -1087,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="7">
-        <v>887.74</v>
+        <v>887.72</v>
       </c>
       <c r="L7" s="7">
         <v>0</v>
@@ -1098,8 +1130,11 @@
       <c r="N7" s="7">
         <v>0</v>
       </c>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
       <c r="P7" s="7">
-        <v>888.41</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1115,13 +1150,13 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7">
-        <v>828.67</v>
+        <v>829.7</v>
       </c>
       <c r="G8" s="10">
-        <v>5157.8599999999997</v>
+        <v>5052.84</v>
       </c>
       <c r="H8" s="7">
-        <v>59.05</v>
+        <v>58.02</v>
       </c>
       <c r="I8" s="7">
         <v>0</v>
@@ -1130,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="7">
-        <v>887.74</v>
+        <v>887.72</v>
       </c>
       <c r="L8" s="7">
         <v>0</v>
@@ -1141,8 +1176,11 @@
       <c r="N8" s="7">
         <v>0</v>
       </c>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
       <c r="P8" s="7">
-        <v>888.31</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1158,13 +1196,13 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7">
-        <v>835.15</v>
+        <v>836.22</v>
       </c>
       <c r="G9" s="10">
-        <v>4322.71</v>
+        <v>4216.62</v>
       </c>
       <c r="H9" s="7">
-        <v>52.57</v>
+        <v>51.5</v>
       </c>
       <c r="I9" s="7">
         <v>0</v>
@@ -1173,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="7">
-        <v>887.74</v>
+        <v>887.72</v>
       </c>
       <c r="L9" s="7">
         <v>0</v>
@@ -1184,8 +1222,11 @@
       <c r="N9" s="7">
         <v>0</v>
       </c>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
       <c r="P9" s="7">
-        <v>888.25</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1201,13 +1242,13 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7">
-        <v>843.66</v>
+        <v>844.75</v>
       </c>
       <c r="G10" s="10">
-        <v>3479.05</v>
+        <v>3371.87</v>
       </c>
       <c r="H10" s="7">
-        <v>44.06</v>
+        <v>42.97</v>
       </c>
       <c r="I10" s="7">
         <v>0</v>
@@ -1216,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="7">
-        <v>887.74</v>
+        <v>887.72</v>
       </c>
       <c r="L10" s="7">
         <v>0</v>
@@ -1227,8 +1268,11 @@
       <c r="N10" s="7">
         <v>0</v>
       </c>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
       <c r="P10" s="7">
-        <v>888.16</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1244,13 +1288,13 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7">
-        <v>853.41</v>
+        <v>854.46</v>
       </c>
       <c r="G11" s="10">
-        <v>2625.64</v>
+        <v>2517.41</v>
       </c>
       <c r="H11" s="7">
-        <v>34.31</v>
+        <v>33.26</v>
       </c>
       <c r="I11" s="7">
         <v>0</v>
@@ -1259,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="7">
-        <v>887.74</v>
+        <v>887.72</v>
       </c>
       <c r="L11" s="7">
         <v>0</v>
@@ -1270,8 +1314,11 @@
       <c r="N11" s="7">
         <v>0</v>
       </c>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
       <c r="P11" s="7">
-        <v>888.06</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1287,13 +1334,13 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7">
-        <v>860.96</v>
+        <v>862.06</v>
       </c>
       <c r="G12" s="10">
-        <v>1764.68</v>
+        <v>1655.35</v>
       </c>
       <c r="H12" s="7">
-        <v>26.76</v>
+        <v>25.66</v>
       </c>
       <c r="I12" s="7">
         <v>0</v>
@@ -1302,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="7">
-        <v>887.74</v>
+        <v>887.72</v>
       </c>
       <c r="L12" s="7">
         <v>0</v>
@@ -1313,8 +1360,11 @@
       <c r="N12" s="7">
         <v>0</v>
       </c>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
       <c r="P12" s="7">
-        <v>887.99</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1330,13 +1380,13 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7">
-        <v>870.31</v>
+        <v>871.39</v>
       </c>
       <c r="G13" s="7">
-        <v>894.37</v>
+        <v>783.96</v>
       </c>
       <c r="H13" s="7">
-        <v>17.41</v>
+        <v>16.329999999999998</v>
       </c>
       <c r="I13" s="7">
         <v>0</v>
@@ -1345,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="7">
-        <v>887.74</v>
+        <v>887.72</v>
       </c>
       <c r="L13" s="7">
         <v>0</v>
@@ -1356,8 +1406,11 @@
       <c r="N13" s="7">
         <v>0</v>
       </c>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
       <c r="P13" s="7">
-        <v>887.89</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1373,13 +1426,13 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7">
-        <v>894.37</v>
+        <v>783.96</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
       </c>
       <c r="H14" s="7">
-        <v>9.1199999999999992</v>
+        <v>7.99</v>
       </c>
       <c r="I14" s="7">
         <v>0</v>
@@ -1388,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="7">
-        <v>887.74</v>
+        <v>791.95</v>
       </c>
       <c r="L14" s="7">
         <v>0</v>
@@ -1399,11 +1452,59 @@
       <c r="N14" s="7">
         <v>0</v>
       </c>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
       <c r="P14" s="7">
-        <v>903.58</v>
+        <v>791.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19">
+        <v>365</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="21">
+        <v>10000</v>
+      </c>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19">
+        <v>656.87</v>
+      </c>
+      <c r="I15" s="19">
+        <v>0</v>
+      </c>
+      <c r="J15" s="19">
+        <v>0</v>
+      </c>
+      <c r="K15" s="20">
+        <v>10656.87</v>
+      </c>
+      <c r="L15" s="19">
+        <v>987.72</v>
+      </c>
+      <c r="M15" s="19">
+        <v>0</v>
+      </c>
+      <c r="N15" s="19">
+        <v>0</v>
+      </c>
+      <c r="O15" s="19">
+        <v>0</v>
+      </c>
+      <c r="P15" s="20">
+        <v>9669.15</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C15:E15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1411,10 +1512,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1432,7 +1533,7 @@
     <col min="11" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1464,9 +1565,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>568</v>
+        <v>120</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>27</v>
@@ -1481,10 +1582,10 @@
         <v>987.72</v>
       </c>
       <c r="F2" s="7">
-        <v>800.98</v>
+        <v>885.8</v>
       </c>
       <c r="G2" s="7">
-        <v>186.74</v>
+        <v>101.92</v>
       </c>
       <c r="H2" s="7">
         <v>0</v>
@@ -1493,12 +1594,14 @@
         <v>0</v>
       </c>
       <c r="J2" s="10">
-        <v>9199.02</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9114.2000000000007</v>
+      </c>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>564</v>
+        <v>118</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>27</v>
@@ -1527,6 +1630,8 @@
       <c r="J3" s="9">
         <v>10000</v>
       </c>
+      <c r="K3"/>
+      <c r="L3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1538,7 +1643,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24:J25"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1634,7 +1739,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1700,7 +1805,7 @@
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -1727,7 +1832,7 @@
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -1753,7 +1858,7 @@
         <v>37</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I4" s="4"/>
     </row>

--- a/Mifos Automation Excels/Client/3011-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-FLAT-Regular-CASH-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3011-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-FLAT-Regular-CASH-Makerepayment1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
   <si>
     <t>#</t>
   </si>
@@ -141,15 +141,9 @@
     <t>Repayment</t>
   </si>
   <si>
-    <t>INCOME</t>
-  </si>
-  <si>
     <t>Income from interest(7)</t>
   </si>
   <si>
-    <t>L216</t>
-  </si>
-  <si>
     <t>$ 10,000</t>
   </si>
   <si>
@@ -171,20 +165,38 @@
     <t>$ 987.72</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>$ 885.8</t>
-  </si>
-  <si>
     <t>$ 101.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Head Office </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L83 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASSET </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mifos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCOME </t>
+  </si>
+  <si>
+    <t>Income from penalties(9)</t>
+  </si>
+  <si>
+    <t>$ 785.8</t>
+  </si>
+  <si>
+    <t>$ 100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,14 +217,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -292,14 +296,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -323,27 +324,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,18 +645,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="18">
+      <c r="B2" s="15">
         <v>42036</v>
       </c>
     </row>
@@ -678,24 +667,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -715,82 +704,83 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>10000</v>
       </c>
-      <c r="B2" s="7">
-        <v>885.8</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="10">
-        <v>9114.2000000000007</v>
-      </c>
-      <c r="F2" s="7">
-        <v>803.82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>656.87</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="B2" s="6">
+        <v>785.8</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9">
+        <v>9214.2000000000007</v>
+      </c>
+      <c r="F2" s="6">
+        <v>802.9</v>
+      </c>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>668.41</v>
+      </c>
+      <c r="B3" s="6">
         <v>101.92</v>
       </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>554.95000000000005</v>
-      </c>
-      <c r="F3" s="7">
-        <v>83.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>0</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>0</v>
-      </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>566.49</v>
+      </c>
+      <c r="F3" s="6">
+        <v>84.82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>200</v>
+      </c>
+      <c r="B5" s="6">
+        <v>100</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>100</v>
+      </c>
+      <c r="F5" s="6">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -801,10 +791,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20:H21"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,633 +868,551 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7">
         <v>42005</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="9">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="8">
         <v>10000</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7">
-        <v>0</v>
-      </c>
-      <c r="L2" s="7">
-        <v>0</v>
-      </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>31</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>42036</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>42036</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="7">
-        <v>885.8</v>
-      </c>
-      <c r="G3" s="10">
-        <v>9114.2000000000007</v>
-      </c>
-      <c r="H3" s="7">
+      <c r="E3" s="10"/>
+      <c r="F3" s="6">
+        <v>785.8</v>
+      </c>
+      <c r="G3" s="9">
+        <v>9214.2000000000007</v>
+      </c>
+      <c r="H3" s="6">
         <v>101.92</v>
       </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>100</v>
+      </c>
+      <c r="K3" s="6">
         <v>987.72</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="6">
         <v>987.72</v>
       </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="O3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>28</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>42064</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7">
-        <v>803.82</v>
-      </c>
-      <c r="G4" s="10">
-        <v>8310.3799999999992</v>
-      </c>
-      <c r="H4" s="7">
-        <v>83.9</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6">
+        <v>802.9</v>
+      </c>
+      <c r="G4" s="9">
+        <v>8411.2999999999993</v>
+      </c>
+      <c r="H4" s="6">
+        <v>84.82</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>100</v>
+      </c>
+      <c r="K4" s="6">
+        <v>987.72</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>987.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6">
+        <v>31</v>
+      </c>
+      <c r="C5" s="7">
+        <v>42095</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6">
+        <v>793.81</v>
+      </c>
+      <c r="G5" s="9">
+        <v>7617.49</v>
+      </c>
+      <c r="H5" s="6">
+        <v>93.91</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
         <v>887.72</v>
       </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6">
+        <v>30</v>
+      </c>
+      <c r="C6" s="7">
+        <v>42125</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6">
+        <v>812.59</v>
+      </c>
+      <c r="G6" s="9">
+        <v>6804.9</v>
+      </c>
+      <c r="H6" s="6">
+        <v>75.13</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>887.72</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6">
         <v>31</v>
       </c>
-      <c r="C5" s="8">
-        <v>42095</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7">
-        <v>794.83</v>
-      </c>
-      <c r="G5" s="10">
-        <v>7515.55</v>
-      </c>
-      <c r="H5" s="7">
-        <v>92.89</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
+      <c r="C7" s="7">
+        <v>42156</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6">
+        <v>818.37</v>
+      </c>
+      <c r="G7" s="9">
+        <v>5986.53</v>
+      </c>
+      <c r="H7" s="6">
+        <v>69.349999999999994</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
         <v>887.72</v>
       </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6">
         <v>30</v>
       </c>
-      <c r="C6" s="8">
-        <v>42125</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7">
-        <v>813.59</v>
-      </c>
-      <c r="G6" s="10">
-        <v>6701.96</v>
-      </c>
-      <c r="H6" s="7">
-        <v>74.13</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
+      <c r="C8" s="7">
+        <v>42186</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6">
+        <v>828.67</v>
+      </c>
+      <c r="G8" s="9">
+        <v>5157.8599999999997</v>
+      </c>
+      <c r="H8" s="6">
+        <v>59.05</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
         <v>887.72</v>
       </c>
-      <c r="L6" s="7">
-        <v>0</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6">
         <v>31</v>
       </c>
-      <c r="C7" s="8">
-        <v>42156</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7">
-        <v>819.42</v>
-      </c>
-      <c r="G7" s="10">
-        <v>5882.54</v>
-      </c>
-      <c r="H7" s="7">
-        <v>68.3</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
+      <c r="C9" s="7">
+        <v>42217</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6">
+        <v>835.15</v>
+      </c>
+      <c r="G9" s="9">
+        <v>4322.71</v>
+      </c>
+      <c r="H9" s="6">
+        <v>52.57</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
         <v>887.72</v>
       </c>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7">
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6">
+        <v>31</v>
+      </c>
+      <c r="C10" s="7">
+        <v>42248</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6">
+        <v>843.66</v>
+      </c>
+      <c r="G10" s="9">
+        <v>3479.05</v>
+      </c>
+      <c r="H10" s="6">
+        <v>44.06</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>887.72</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6">
         <v>30</v>
       </c>
-      <c r="C8" s="8">
-        <v>42186</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7">
-        <v>829.7</v>
-      </c>
-      <c r="G8" s="10">
-        <v>5052.84</v>
-      </c>
-      <c r="H8" s="7">
-        <v>58.02</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
+      <c r="C11" s="7">
+        <v>42278</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6">
+        <v>853.41</v>
+      </c>
+      <c r="G11" s="9">
+        <v>2625.64</v>
+      </c>
+      <c r="H11" s="6">
+        <v>34.31</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
         <v>887.72</v>
       </c>
-      <c r="L8" s="7">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6">
         <v>31</v>
       </c>
-      <c r="C9" s="8">
-        <v>42217</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7">
-        <v>836.22</v>
-      </c>
-      <c r="G9" s="10">
-        <v>4216.62</v>
-      </c>
-      <c r="H9" s="7">
-        <v>51.5</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
+      <c r="C12" s="7">
+        <v>42309</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6">
+        <v>860.96</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1764.68</v>
+      </c>
+      <c r="H12" s="6">
+        <v>26.76</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
         <v>887.72</v>
       </c>
-      <c r="L9" s="7">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7">
+      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="P12" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6">
+        <v>30</v>
+      </c>
+      <c r="C13" s="7">
+        <v>42339</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6">
+        <v>870.31</v>
+      </c>
+      <c r="G13" s="6">
+        <v>894.37</v>
+      </c>
+      <c r="H13" s="6">
+        <v>17.41</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
+        <v>887.72</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0</v>
+      </c>
+      <c r="P13" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6">
         <v>31</v>
       </c>
-      <c r="C10" s="8">
-        <v>42248</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7">
-        <v>844.75</v>
-      </c>
-      <c r="G10" s="10">
-        <v>3371.87</v>
-      </c>
-      <c r="H10" s="7">
-        <v>42.97</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7">
-        <v>0</v>
-      </c>
-      <c r="K10" s="7">
-        <v>887.72</v>
-      </c>
-      <c r="L10" s="7">
-        <v>0</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>9</v>
-      </c>
-      <c r="B11" s="7">
-        <v>30</v>
-      </c>
-      <c r="C11" s="8">
-        <v>42278</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7">
-        <v>854.46</v>
-      </c>
-      <c r="G11" s="10">
-        <v>2517.41</v>
-      </c>
-      <c r="H11" s="7">
-        <v>33.26</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7">
-        <v>0</v>
-      </c>
-      <c r="K11" s="7">
-        <v>887.72</v>
-      </c>
-      <c r="L11" s="7">
-        <v>0</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7">
-        <v>31</v>
-      </c>
-      <c r="C12" s="8">
-        <v>42309</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7">
-        <v>862.06</v>
-      </c>
-      <c r="G12" s="10">
-        <v>1655.35</v>
-      </c>
-      <c r="H12" s="7">
-        <v>25.66</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7">
-        <v>0</v>
-      </c>
-      <c r="K12" s="7">
-        <v>887.72</v>
-      </c>
-      <c r="L12" s="7">
-        <v>0</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>11</v>
-      </c>
-      <c r="B13" s="7">
-        <v>30</v>
-      </c>
-      <c r="C13" s="8">
-        <v>42339</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7">
-        <v>871.39</v>
-      </c>
-      <c r="G13" s="7">
-        <v>783.96</v>
-      </c>
-      <c r="H13" s="7">
-        <v>16.329999999999998</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7">
-        <v>0</v>
-      </c>
-      <c r="K13" s="7">
-        <v>887.72</v>
-      </c>
-      <c r="L13" s="7">
-        <v>0</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7">
-        <v>0</v>
-      </c>
-      <c r="P13" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>12</v>
-      </c>
-      <c r="B14" s="7">
-        <v>31</v>
-      </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>42370</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7">
-        <v>783.96</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7">
-        <v>7.99</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7">
-        <v>0</v>
-      </c>
-      <c r="K14" s="7">
-        <v>791.95</v>
-      </c>
-      <c r="L14" s="7">
-        <v>0</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7">
-        <v>791.95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19">
-        <v>365</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="21">
-        <v>10000</v>
-      </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19">
-        <v>656.87</v>
-      </c>
-      <c r="I15" s="19">
-        <v>0</v>
-      </c>
-      <c r="J15" s="19">
-        <v>0</v>
-      </c>
-      <c r="K15" s="20">
-        <v>10656.87</v>
-      </c>
-      <c r="L15" s="19">
-        <v>987.72</v>
-      </c>
-      <c r="M15" s="19">
-        <v>0</v>
-      </c>
-      <c r="N15" s="19">
-        <v>0</v>
-      </c>
-      <c r="O15" s="19">
-        <v>0</v>
-      </c>
-      <c r="P15" s="20">
-        <v>9669.15</v>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6">
+        <v>894.37</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
+        <v>903.49</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
+      <c r="P14" s="6">
+        <v>903.49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C15:E15"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1520,17 +1428,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1566,68 +1474,68 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>120</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="6">
+        <v>83</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>42036</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>987.72</v>
       </c>
-      <c r="F2" s="7">
-        <v>885.8</v>
-      </c>
-      <c r="G2" s="7">
+      <c r="F2" s="6">
+        <v>785.8</v>
+      </c>
+      <c r="G2" s="6">
         <v>101.92</v>
       </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7">
-        <v>0</v>
-      </c>
-      <c r="J2" s="10">
-        <v>9114.2000000000007</v>
-      </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>100</v>
+      </c>
+      <c r="J2" s="9">
+        <v>9214.2000000000007</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>118</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="6">
+        <v>79</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>42005</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>10000</v>
       </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="9">
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
         <v>10000</v>
       </c>
       <c r="K3"/>
@@ -1649,31 +1557,31 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="14" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1682,13 +1590,13 @@
         <v>3640</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="16">
+        <v>43</v>
+      </c>
+      <c r="C2" s="13">
         <v>42005</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
@@ -1700,7 +1608,7 @@
         <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1708,13 +1616,13 @@
         <v>3641</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="16">
+        <v>43</v>
+      </c>
+      <c r="C3" s="13">
         <v>42005</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
@@ -1726,7 +1634,7 @@
         <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1736,131 +1644,154 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="13"/>
-    <col min="2" max="2" width="17" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="13"/>
-    <col min="7" max="7" width="21.85546875" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="9.140625" style="12"/>
+    <col min="2" max="2" width="17" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="12"/>
+    <col min="7" max="7" width="21.85546875" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>9</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>110</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="16">
         <v>42036</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="D2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>111</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="16">
+        <v>42036</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>112</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="16">
+        <v>42036</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>113</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="16">
+        <v>42036</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="15">
-        <v>42036</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
+      <c r="F5" s="12" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="15">
-        <v>42036</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="G5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="4"/>
+      <c r="H5" s="19" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/3011-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-FLAT-Regular-CASH-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3011-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-FLAT-Regular-CASH-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -791,10 +791,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,12 +812,13 @@
     <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="19" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -857,17 +858,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -893,8 +895,9 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -932,14 +935,15 @@
       <c r="M3" s="6">
         <v>0</v>
       </c>
-      <c r="N3" s="6">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N3" s="6"/>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -975,14 +979,15 @@
       <c r="M4" s="6">
         <v>0</v>
       </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6">
+      <c r="N4" s="6"/>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
         <v>987.72</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -1018,14 +1023,15 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
+      <c r="N5" s="6"/>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -1061,14 +1067,15 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
+      <c r="N6" s="6"/>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1104,14 +1111,15 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
+      <c r="N7" s="6"/>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1147,14 +1155,15 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1190,14 +1199,15 @@
       <c r="M9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
+      <c r="N9" s="6"/>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1233,14 +1243,15 @@
       <c r="M10" s="6">
         <v>0</v>
       </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6">
+      <c r="N10" s="6"/>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1276,14 +1287,15 @@
       <c r="M11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="P11" s="6">
+      <c r="N11" s="6"/>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1319,14 +1331,15 @@
       <c r="M12" s="6">
         <v>0</v>
       </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="P12" s="6">
+      <c r="N12" s="6"/>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -1362,14 +1375,15 @@
       <c r="M13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="P13" s="6">
+      <c r="N13" s="6"/>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -1405,10 +1419,11 @@
       <c r="M14" s="6">
         <v>0</v>
       </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c r="P14" s="6">
+      <c r="N14" s="6"/>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
         <v>903.49</v>
       </c>
     </row>
@@ -1646,7 +1661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
